--- a/sellerflash-otomasyon-linkler/Dining & Entertaining.xlsx
+++ b/sellerflash-otomasyon-linkler/Dining & Entertaining.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Library/CloudStorage/GoogleDrive-skywalkerpluton@gmail.com/Drive'ım/Amazon/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65957D5D-22B6-5B4B-88F4-948FE463007A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65173164-AA3A-4240-8562-E4DBEC5D6A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16900" xr2:uid="{66DE356E-8422-B348-AA74-1F34BC1F6778}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EC5978-987F-5747-89CC-4B8D5A5DDE74}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:B65">"'"&amp;A1:A65&amp;"',"</f>
+        <f t="array" ref="B1:B62">"'"&amp;A1:A62&amp;"',"</f>
         <v>'https://www.amazon.com/s?i=garden&amp;bbn=3194593011&amp;rh=n%3A1055398%2Cn%3A284507%2Cn%3A13162311%2Cn%3A3194593011%2Cn%3A5314725011%2Cp_72%3A1248915011%2Cp_36%3A1500-7700&amp;dc&amp;ds=v1%3AUSZxc6AmpzMYgtgn3S6jAv%2FfVN10gTMJTuP3R1uHEe0&amp;qid=1688088226&amp;rnid=3194593011&amp;ref=sr_nr_n_3',</v>
       </c>
     </row>
@@ -1099,21 +1099,6 @@
       </c>
       <c r="B62" t="str">
         <v>'https://www.amazon.com/s?i=garden&amp;bbn=13162311&amp;rh=n%3A1055398%2Cn%3A284507%2Cn%3A13162311%2Cn%3A367165011%2Cp_72%3A1248915011%2Cp_36%3A1500-7700&amp;dc&amp;ds=v1%3AzlG8cTQ9NV58medBgp%2BEK4JRzh3dvx6OVaoSFvwD7m0&amp;qid=1688088214&amp;rnid=13162311&amp;ref=sr_nr_n_2',</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B64" t="str">
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="str">
-        <v>'',</v>
       </c>
     </row>
   </sheetData>
